--- a/templates/3ASY02_ProteomicsMeasurement/3ASY02_ProteomicsMeasurement.xlsx
+++ b/templates/3ASY02_ProteomicsMeasurement/3ASY02_ProteomicsMeasurement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/630acb9a9506da97/CSB-Stuff/NFDI/ProteomicsTemplate/modular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freym\source\repos\SWATE_templates\templates\3ASY02_ProteomicsMeasurement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{4E2E7680-CDC8-425A-8327-0918921D25A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DB106991-2210-49C9-808C-460DF9256B6D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BA3BDB-E351-49E4-A35D-FA0413029BE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0FB3F19-C527-41AF-B02D-0669FBE7650F}"/>
+    <workbookView xWindow="-28920" yWindow="-6555" windowWidth="29040" windowHeight="15840" xr2:uid="{B0FB3F19-C527-41AF-B02D-0669FBE7650F}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY02_ProteomicsMeasurement" sheetId="6" r:id="rId1"/>
@@ -48,76 +48,76 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9515FED9-5911-49C8-8797-8A0D6D8C3737}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     (previously known as)</t>
       </text>
     </comment>
     <comment ref="B3" authorId="1" shapeId="0" xr:uid="{1C224557-DDD7-45F6-9EA4-780D525EB8A2}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The number of this technical replicate (e.g. '7').</t>
       </text>
     </comment>
     <comment ref="E3" authorId="2" shapeId="0" xr:uid="{92B1FCD4-0C5A-4708-8CF2-BFFD9D2F8B22}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Variable PTMs (may occur or not) of this sample (e.g. 'Carbamidomethyl').
 Note: Only terms from PSI-MOD ontology are allowed!</t>
       </text>
     </comment>
     <comment ref="H3" authorId="3" shapeId="0" xr:uid="{58805CFC-B729-4889-9514-95B3130CED1D}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Fixed PTMs of this sample (e.g. 'Carbamidomethyl').
 Note: Only terms from PSI-MOD are allowed!</t>
       </text>
     </comment>
     <comment ref="K3" authorId="4" shapeId="0" xr:uid="{15AA9B41-9274-4A68-9A68-3C8C8074EAA6}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The volume of the solution in which the sample is solved (e.g. '270 µl').</t>
       </text>
     </comment>
     <comment ref="N3" authorId="5" shapeId="0" xr:uid="{BF1F97D6-534C-49C1-9A4D-4E28E9886838}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The volume of the sample injected into the MS after HPLC (e.g. '30 µl').</t>
       </text>
     </comment>
     <comment ref="Q3" authorId="6" shapeId="0" xr:uid="{78810DD5-C3D0-44F8-BDB5-926346BF5BBE}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The number of injections performed on this sample (e.g. '10').</t>
       </text>
     </comment>
     <comment ref="T3" authorId="7" shapeId="0" xr:uid="{BF4F460A-F874-4077-AA28-D086FFE6F3C2}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The name of your MS-instrument model (e.g. 'TruTOF').
 Note: Only terms from PSI-MS ontology are allowed</t>
       </text>
     </comment>
     <comment ref="W3" authorId="8" shapeId="0" xr:uid="{3DDF34BD-024F-4A08-A24E-D875A87E3B91}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The time the HPLC separation lasted 'e.g. 3 h').</t>
       </text>
     </comment>
@@ -334,7 +334,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -384,7 +384,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{182571E2-08C5-4CDD-BC87-4140A0F2C8FE}" name="annotationTable1" displayName="annotationTable1" ref="A3:Z4" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{182571E2-08C5-4CDD-BC87-4140A0F2C8FE}" name="annotationTable" displayName="annotationTable" ref="A3:Z4" totalsRowShown="0">
   <autoFilter ref="A3:Z4" xr:uid="{45A12931-8675-4B3D-BB5E-DBF348EF23A8}"/>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{A8E7EE3D-FBD8-4EC1-BEF2-C438C95B647C}" name="Source Name"/>
@@ -419,7 +419,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -750,7 +750,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="619" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="523" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -770,41 +770,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C6102F-5600-49C7-8F5B-61A5030158C7}">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="61.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="31.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.59765625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="61.73046875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="34.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.86328125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="51" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="48.28515625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="58.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.265625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="48.265625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="51.73046875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="58.86328125" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.5703125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="46.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.59765625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="46.73046875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="23.86328125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="47" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="54.140625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="54.1328125" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="54.28515625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="61.42578125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="47.5703125" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="54.7109375" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="54.265625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="61.3984375" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="47.59765625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="54.73046875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="16.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -833,7 +833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -861,7 +861,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -941,7 +941,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B4" s="7"/>
       <c r="E4" s="1"/>
       <c r="H4" s="1"/>
@@ -952,7 +952,7 @@
       <c r="W4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B5" s="7"/>
       <c r="E5" s="1"/>
       <c r="H5" s="1"/>
@@ -962,7 +962,7 @@
       <c r="T5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B6" s="7"/>
       <c r="E6" s="1"/>
       <c r="H6" s="1"/>
@@ -972,7 +972,7 @@
       <c r="T6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B7" s="7"/>
       <c r="E7" s="1"/>
       <c r="H7" s="1"/>
@@ -982,7 +982,7 @@
       <c r="T7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B8" s="7"/>
       <c r="E8" s="1"/>
       <c r="H8" s="1"/>
@@ -992,7 +992,7 @@
       <c r="T8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B9" s="7"/>
       <c r="E9" s="1"/>
       <c r="H9" s="1"/>
@@ -1013,17 +1013,8 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
-  <SwateTable Table="annotationTable2" Worksheet="Data procession">
-    <TableValidation DateTime="2021-03-02 14:11" SwateVersion="0.4.0" TableName="annotationTable2" Userlist="" WorksheetName="Data procession">
-      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="5" Unit="None" ValidationFormat="Text"/>
-      <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [acquisition software]" Importance="3" Unit="None" ValidationFormat="OntologyTerm acquisition software"/>
-      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [analysis software]" Importance="3" Unit="None" ValidationFormat="OntologyTerm analysis software"/>
-      <ColumnValidation ColumnAdress="7" ColumnHeader="Parameter [data processing software]" Importance="3" Unit="None" ValidationFormat="OntologyTerm data processing software"/>
-      <ColumnValidation ColumnAdress="10" ColumnHeader="Data File Name" Importance="5" Unit="None" ValidationFormat="Text"/>
-    </TableValidation>
-  </SwateTable>
-  <SwateTable Table="annotationTable1" Worksheet="Measurement">
-    <TableValidation DateTime="2021-03-02 14:10" SwateVersion="0.4.0" TableName="annotationTable1" Userlist="" WorksheetName="Measurement">
+  <SwateTable Table="annotationTable" Worksheet="3ASY02_ProteomicsMeasurement">
+    <TableValidation DateTime="2021-03-02 14:10" SwateVersion="0.4.4" TableName="annotationTable" Userlist="" WorksheetName="3ASY02_ProteomicsMeasurement">
       <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="5" Unit="None" ValidationFormat="Text"/>
       <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [technical replicate]" Importance="3" Unit="None" ValidationFormat="Int"/>
       <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [Variable modification]" Importance="4" Unit="None" ValidationFormat="OntologyTerm Variable modification"/>
@@ -1036,38 +1027,11 @@
       <ColumnValidation ColumnAdress="25" ColumnHeader="Data File Name" Importance="5" Unit="None" ValidationFormat="Text"/>
     </TableValidation>
   </SwateTable>
-  <SwateTable Table="annotationTable" Worksheet="Sample preparation">
-    <TableValidation DateTime="2021-03-02 14:07" SwateVersion="0.4.0" TableName="annotationTable" Userlist="" WorksheetName="Sample preparation">
-      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="5" Unit="None" ValidationFormat="Text"/>
-      <ColumnValidation ColumnAdress="1" ColumnHeader="Characteristics [species]" Importance="4" Unit="None" ValidationFormat="OntologyTerm species"/>
-      <ColumnValidation ColumnAdress="4" ColumnHeader="Characteristics [genotype information]" Importance="4" Unit="None" ValidationFormat="OntologyTerm genotype information"/>
-      <ColumnValidation ColumnAdress="7" ColumnHeader="Characteristics [sample preparation]" Importance="5" Unit="None" ValidationFormat="OntologyTerm sample preparation"/>
-      <ColumnValidation ColumnAdress="10" ColumnHeader="Characteristics [protein tag]" Importance="3" Unit="None" ValidationFormat="OntologyTerm protein tag"/>
-      <ColumnValidation ColumnAdress="13" ColumnHeader="Characteristics [tissues, cell types and enzyme sources]" Importance="2" Unit="None" ValidationFormat="OntologyTerm tissues, cell types and enzyme sources"/>
-      <ColumnValidation ColumnAdress="16" ColumnHeader="Characteristics [cell]" Importance="3" Unit="None" ValidationFormat="OntologyTerm cell"/>
-      <ColumnValidation ColumnAdress="19" ColumnHeader="Characteristics [disease]" Importance="1" Unit="None" ValidationFormat="OntologyTerm disease"/>
-      <ColumnValidation ColumnAdress="22" ColumnHeader="Characteristics [biological replicate]" Importance="2" Unit="None" ValidationFormat="Int"/>
-      <ColumnValidation ColumnAdress="25" ColumnHeader="Parameter [Quantification method]" Importance="3" Unit="None" ValidationFormat="OntologyTerm Quantification method"/>
-      <ColumnValidation ColumnAdress="28" ColumnHeader="Parameter [spectrum interpretation]" Importance="3" Unit="None" ValidationFormat="OntologyTerm spectrum interpretation"/>
-      <ColumnValidation ColumnAdress="31" ColumnHeader="Parameter [matrix solution]" Importance="2" Unit="None" ValidationFormat="OntologyTerm matrix solution"/>
-      <ColumnValidation ColumnAdress="34" ColumnHeader="Parameter [cleavage agent name]" Importance="3" Unit="None" ValidationFormat="OntologyTerm cleavage agent name"/>
-      <ColumnValidation ColumnAdress="37" ColumnHeader="Parameter [molecule]" Importance="3" Unit="None" ValidationFormat="OntologyTerm molecule"/>
-      <ColumnValidation ColumnAdress="40" ColumnHeader="Parameter [sample state]" Importance="2" Unit="None" ValidationFormat="OntologyTerm sample state"/>
-      <ColumnValidation ColumnAdress="43" ColumnHeader="Parameter [staining]" Importance="3" Unit="None" ValidationFormat="OntologyTerm staining"/>
-      <ColumnValidation ColumnAdress="46" ColumnHeader="Parameter [buffer]" Importance="2" Unit="None" ValidationFormat="OntologyTerm buffer"/>
-      <ColumnValidation ColumnAdress="49" ColumnHeader="Parameter [ph]" Importance="2" Unit="None" ValidationFormat="Number"/>
-      <ColumnValidation ColumnAdress="52" ColumnHeader="Parameter [sample pre-fractionation]" Importance="3" Unit="None" ValidationFormat="OntologyTerm sample pre-fractionation"/>
-      <ColumnValidation ColumnAdress="55" ColumnHeader="Parameter [protein column]" Importance="3" Unit="None" ValidationFormat="OntologyTerm protein column"/>
-      <ColumnValidation ColumnAdress="58" ColumnHeader="Parameter [temperature]" Importance="3" Unit="degree Celsius" ValidationFormat="UnitTerm degree Celsius"/>
-      <ColumnValidation ColumnAdress="64" ColumnHeader="Parameter [time]" Importance="3" Unit="None" ValidationFormat="Number"/>
-      <ColumnValidation ColumnAdress="67" ColumnHeader="Sample Name" Importance="5" Unit="None" ValidationFormat="Text"/>
-    </TableValidation>
-  </SwateTable>
 </customXml>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC659FA7-EECD-4F3A-A590-22A36420F9C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C191A3-94F2-4009-B492-255B994F00E4}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>